--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-13_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-13_beg.xlsx
@@ -376,7 +376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ruins of Chernobog "District 14"
+    <t xml:space="preserve">Ruins of Chernobog 'District 14'
 </t>
   </si>
   <si>
